--- a/biology/Zoologie/Argyrodes_elevatus/Argyrodes_elevatus.xlsx
+++ b/biology/Zoologie/Argyrodes_elevatus/Argyrodes_elevatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argyrodes elevatus est une espèce d'araignées aranéomorphes de la famille des Theridiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrodes elevatus est une espèce d'araignées aranéomorphes de la famille des Theridiidae.
 C'est une araignées commensale et cleptoparasite.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre du Sud des États-Unis à l'Argentine[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre du Sud des États-Unis à l'Argentine.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Exline et Levi en 1962 mesure 4,0 mm et la femelle 3,4 mm[2].
-Ces araignées, d'une taille de 3 à 7 mm[3],[4], ont un abdomen parfois argenté, de forme conique, et un céphalothorax brun foncé[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Exline et Levi en 1962 mesure 4,0 mm et la femelle 3,4 mm.
+Ces araignées, d'une taille de 3 à 7 mm ont un abdomen parfois argenté, de forme conique, et un céphalothorax brun foncé.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les araignées de cette espèce peuvent tout autant être commensales que cleptoparasites[6]. Elles habitent sur les toiles d'orbitèles[5], comme celle des argiopes[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les araignées de cette espèce peuvent tout autant être commensales que cleptoparasites. Elles habitent sur les toiles d'orbitèles, comme celle des argiopes.
 </t>
         </is>
       </c>
@@ -606,12 +624,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Taczanowski en 1873.
-Argyrodes concinna[8], Argyrodes jucunda[8], Argyrodes lugens[8], Argyrodes decorus[9], Argyrodes biclavis[10], Argyrodes cingulatus[11], Argyrodes falcatus[12], Argyrodes rotundus[13], Conopistha elongata[14], Conopistha argentinus[15] et Rhomphaea simplex[16] ont été placées en synonymie par Exline et Levi en 1962[2].
-Conopistha friburgensis[17] et Conopistha pickeli[17] ont été placées en synonymie par Levi en 1967[18].
-Microcephalus fur[19] a été placée en synonymie par Levi en 1972[20].
+Argyrodes concinna, Argyrodes jucunda, Argyrodes lugens, Argyrodes decorus, Argyrodes biclavis, Argyrodes cingulatus, Argyrodes falcatus, Argyrodes rotundus, Conopistha elongata, Conopistha argentinus et Rhomphaea simplex ont été placées en synonymie par Exline et Levi en 1962.
+Conopistha friburgensis et Conopistha pickeli ont été placées en synonymie par Levi en 1967.
+Microcephalus fur a été placée en synonymie par Levi en 1972.
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Taczanowski, 1873 : « Les aranéides de la Guyane française. » Horae Societatis Entomologicae Rossicae, vol. 9, p. 113-150 &amp; 261-286.</t>
         </is>
